--- a/premium/src/main/resources/hospital_cash_individual.xlsx
+++ b/premium/src/main/resources/hospital_cash_individual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anil.juneja/Downloads/superstar/superstar/premium/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AE7370-2872-DC45-A011-66DD07AD031E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289F5051-CFD8-CC48-AD00-32CD73CDBBED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" xr2:uid="{BEE94EA9-650B-9548-AF09-391EB2BD2042}"/>
   </bookViews>
@@ -134,7 +134,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -453,7 +453,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE01AE98-F7C5-5A49-94A1-CA6498DFAD2F}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -479,19 +481,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>20</v>
+        <v>402</v>
       </c>
       <c r="C2" s="5">
-        <f>B2*2</f>
-        <v>40</v>
+        <v>442</v>
       </c>
       <c r="D2" s="5">
-        <f t="shared" ref="D2:E2" si="0">C2*2</f>
-        <v>80</v>
+        <v>482</v>
       </c>
       <c r="E2" s="5">
-        <f t="shared" si="0"/>
-        <v>160</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -499,19 +498,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>21</v>
+        <v>535</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" ref="C3:E8" si="1">B3*2</f>
-        <v>42</v>
+        <v>588</v>
       </c>
       <c r="D3" s="5">
-        <f t="shared" si="1"/>
-        <v>84</v>
+        <v>641</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" si="1"/>
-        <v>168</v>
+        <v>695</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -519,19 +515,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <v>22</v>
+        <v>811</v>
       </c>
       <c r="C4" s="5">
-        <f t="shared" si="1"/>
-        <v>44</v>
+        <v>892</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" si="1"/>
-        <v>88</v>
+        <v>973</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" si="1"/>
-        <v>176</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -539,19 +532,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>23</v>
+        <v>1035</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" si="1"/>
-        <v>46</v>
+        <v>1139</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" si="1"/>
-        <v>92</v>
+        <v>1242</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="1"/>
-        <v>184</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -559,19 +549,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="5">
-        <v>24</v>
+        <v>1190</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" si="1"/>
-        <v>48</v>
+        <v>1309</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" si="1"/>
-        <v>96</v>
+        <v>1428</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="1"/>
-        <v>192</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -579,19 +566,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="5">
-        <v>25</v>
+        <v>1536</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <v>1689</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <v>1843</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="1"/>
-        <v>200</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -599,19 +583,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="5">
-        <v>26</v>
+        <v>2600</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" si="1"/>
-        <v>52</v>
+        <v>2860</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" si="1"/>
-        <v>104</v>
+        <v>3120</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="1"/>
-        <v>208</v>
+        <v>3380</v>
       </c>
     </row>
   </sheetData>
